--- a/biology/Zoologie/Agrilinus_rufus/Agrilinus_rufus.xlsx
+++ b/biology/Zoologie/Agrilinus_rufus/Agrilinus_rufus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrilinus rufus (ou Aphodius rufus[1]) est une espèce d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de la sous-famille des Aphodiinae, du genre Agrilinus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrilinus rufus (ou Aphodius rufus) est une espèce d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de la sous-famille des Aphodiinae, du genre Agrilinus.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Agrilinus rufus a été initialement décrite en 1782 par l'entomologiste autrichien Karl von Moll (d) (1760-1838) sous le protonyme de Scarabaeus rufus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Agrilinus rufus a été initialement décrite en 1782 par l'entomologiste autrichien Karl von Moll (d) (1760-1838) sous le protonyme de Scarabaeus rufus.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en France, dans le Nord-Pas-de-Calais par exemple.
 </t>
@@ -573,9 +589,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon INPN      (11 août 2014)[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon INPN      (11 août 2014) : 
 Aphodius aurantiacus Mulsant, 1842
 Aphodius hypocophinus Strand, 1917
 Aphodius hypocophus Gistel, 1857
@@ -591,7 +609,7 @@
 Aphodius scybalarius (Fabricius, 1781)
 Bodilopsis rufa (Moll, 1782)
 Scarabaeus castaneus Marsham, 1802
-Scarabaeus rufus Moll, 1782 nec DeGeer, 1778[2]
+Scarabaeus rufus Moll, 1782 nec DeGeer, 1778
 Scarabaeus scybalarius Fabricius, 1781
 Scarabaeus unicolor Marsham, 1802</t>
         </is>
